--- a/ig/ch-core/StructureDefinition-ch-core-composition-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-composition-epr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="592">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -990,7 +990,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1560,7 +1560,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -1841,61 +1841,6 @@
   </si>
   <si>
     <t>According to the EPR ordonnance the PDF has to be in PDF/A-1 or PDF/A-2 format.</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html) or [Composition.section.text](http://hl7.org/fhir/R4/composition-definitions.html#Composition.section.text)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](StructureDefinition-originalText.html) which claims that the data is derived from the text provided or linked to.</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.display</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.display</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.emptyReason</t>
@@ -2216,7 +2161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO128"/>
+  <dimension ref="A1:AO121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2225,7 +2170,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -16207,7 +16152,7 @@
         <v>590</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16230,16 +16175,20 @@
         <v>80</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>172</v>
+        <v>558</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
       </c>
@@ -16263,13 +16212,13 @@
         <v>80</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>80</v>
@@ -16287,7 +16236,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>174</v>
+        <v>557</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16296,19 +16245,19 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>80</v>
@@ -16319,21 +16268,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>80</v>
@@ -16345,16 +16294,16 @@
         <v>80</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>177</v>
+        <v>566</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>178</v>
+        <v>567</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>157</v>
+        <v>568</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16392,19 +16341,19 @@
         <v>80</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>180</v>
+        <v>565</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -16413,847 +16362,24 @@
         <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>175</v>
+        <v>502</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="D122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO128" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/ig/ch-core/StructureDefinition-ch-core-composition-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-composition-epr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1011,7 +1011,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1322,7 +1322,7 @@
     <t>Composition.attester:legalAuthenticator.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
 </t>
   </si>
   <si>
@@ -1812,10 +1812,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.focus</t>
@@ -2170,15 +2166,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2189,27 +2185,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15469,7 +15465,7 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>581</v>
+        <v>321</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>521</v>
@@ -15560,7 +15556,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>523</v>
@@ -15677,7 +15673,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>528</v>
@@ -15706,7 +15702,7 @@
         <v>122</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>530</v>
@@ -15794,7 +15790,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>534</v>
@@ -15913,7 +15909,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>542</v>
@@ -16032,7 +16028,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>550</v>
@@ -16058,10 +16054,10 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>552</v>
@@ -16149,7 +16145,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>557</v>
@@ -16268,7 +16264,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>565</v>

--- a/ig/ch-core/StructureDefinition-ch-core-composition-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-composition-epr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -461,36 +461,23 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Composition.extension:informationRecipient</t>
-  </si>
-  <si>
-    <t>informationRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-epr-informationrecipient}
+    <t>Composition.extension:dataEnterer</t>
+  </si>
+  <si>
+    <t>dataEnterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-epr-dataenterer}
 </t>
   </si>
   <si>
-    <t>Extension to define the information about the recipient</t>
+    <t>Extension to define the information about the person and organization that entered data and the time of the data input. This extension has its origin from CDA and is deprecated.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Composition.extension:dataEnterer</t>
-  </si>
-  <si>
-    <t>dataEnterer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-epr-dataenterer}
-</t>
-  </si>
-  <si>
-    <t>Extension to define the information about the person and organization that entered data and the time of the data input</t>
-  </si>
-  <si>
     <t>Composition.modifierExtension</t>
   </si>
   <si>
@@ -634,7 +621,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -710,7 +697,7 @@
     <t>Composition.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -817,7 +804,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -901,7 +888,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1058,7 +1045,7 @@
     <t>Timestamp of the authorship/data input</t>
   </si>
   <si>
-    <t>Extension to define the timestamp of the authorship/data input</t>
+    <t>Extension to define the timestamp of the authorship/data input. This extension has its origin from CDA and is deprecated.</t>
   </si>
   <si>
     <t>Composition.author.reference</t>
@@ -1171,10 +1158,6 @@
     <t>Identifies responsibility for the accuracy of the composition content.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:mode}
-</t>
-  </si>
-  <si>
     <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
   </si>
   <si>
@@ -1252,7 +1235,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1290,58 +1273,6 @@
   </si>
   <si>
     <t>Composition.attester.party.display</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator</t>
-  </si>
-  <si>
-    <t>legalAuthenticator</t>
-  </si>
-  <si>
-    <t>legal authenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.id</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.mode</t>
-  </si>
-  <si>
-    <t>legal</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.time</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
-</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party.id</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party.reference</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party.type</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party.identifier</t>
-  </si>
-  <si>
-    <t>Composition.attester:legalAuthenticator.party.display</t>
   </si>
   <si>
     <t>Composition.custodian</t>
@@ -1538,7 +1469,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1621,7 +1552,7 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.author</t>
@@ -1709,7 +1640,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1755,7 +1686,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -2157,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO121"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3281,7 +3212,7 @@
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
@@ -3385,41 +3316,43 @@
         <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3467,7 +3400,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3476,7 +3409,7 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>143</v>
@@ -3485,7 +3418,7 @@
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>80</v>
@@ -3499,46 +3432,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3586,42 +3517,42 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3629,7 +3560,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>92</v>
@@ -3641,20 +3572,18 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3703,7 +3632,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3715,41 +3644,41 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3761,15 +3690,17 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3806,37 +3737,37 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3850,44 +3781,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3911,49 +3844,49 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3967,10 +3900,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3987,25 +3920,25 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4030,13 +3963,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -4054,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4072,7 +4005,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4086,10 +4019,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4097,7 +4030,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>92</v>
@@ -4112,32 +4045,32 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -4149,13 +4082,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4173,7 +4106,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4191,7 +4124,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -4205,10 +4138,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4231,32 +4164,30 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -4292,7 +4223,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4310,7 +4241,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4324,10 +4255,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4335,7 +4266,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -4350,17 +4281,15 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4373,7 +4302,7 @@
         <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>80</v>
@@ -4409,7 +4338,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4427,7 +4356,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4441,10 +4370,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4467,15 +4396,17 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4524,7 +4455,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4542,7 +4473,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4556,10 +4487,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4567,7 +4498,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>
@@ -4576,24 +4507,26 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4617,13 +4550,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4641,10 +4574,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>92</v>
@@ -4656,27 +4589,27 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4693,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4736,13 +4669,11 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4760,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>92</v>
@@ -4775,27 +4706,27 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4803,10 +4734,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4818,19 +4749,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4855,11 +4786,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4877,13 +4810,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4892,27 +4825,27 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4920,10 +4853,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4935,19 +4868,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4972,37 +4905,37 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -5011,27 +4944,27 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5039,7 +4972,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -5051,23 +4984,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5115,7 +5044,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5127,41 +5056,41 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5173,15 +5102,17 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5218,37 +5149,37 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5262,21 +5193,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5285,19 +5216,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5335,37 +5266,37 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5379,10 +5310,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5390,7 +5321,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5405,16 +5336,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5440,13 +5371,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5464,7 +5395,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5473,7 +5404,7 @@
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5496,10 +5427,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5522,16 +5453,16 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5557,13 +5488,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5581,7 +5512,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5599,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5613,10 +5544,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5639,16 +5570,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5698,7 +5629,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5716,7 +5647,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5730,10 +5661,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5756,18 +5687,18 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5815,7 +5746,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5830,27 +5761,27 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5858,7 +5789,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>92</v>
@@ -5873,17 +5804,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5932,10 +5865,10 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>92</v>
@@ -5947,27 +5880,27 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5978,7 +5911,7 @@
         <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5990,19 +5923,17 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6051,13 +5982,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -6066,27 +5997,27 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6094,10 +6025,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6106,21 +6037,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>169</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6168,53 +6097,53 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6226,15 +6155,17 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6271,37 +6202,37 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6315,21 +6246,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6341,17 +6274,15 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6388,19 +6319,19 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6418,7 +6349,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6432,20 +6363,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C37" t="s" s="2">
         <v>333</v>
       </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>92</v>
@@ -6457,18 +6386,20 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6517,25 +6448,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6549,10 +6480,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6560,7 +6491,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>92</v>
@@ -6575,16 +6506,16 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6610,13 +6541,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6634,7 +6565,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6643,7 +6574,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6666,10 +6597,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6692,16 +6623,16 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6727,13 +6658,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6751,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6769,7 +6700,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6783,10 +6714,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6809,16 +6740,16 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6868,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6886,7 +6817,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6900,10 +6831,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6911,7 +6842,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>92</v>
@@ -6926,16 +6857,16 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6985,10 +6916,10 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>92</v>
@@ -7003,13 +6934,13 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7017,10 +6948,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7043,16 +6974,16 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7078,13 +7009,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7102,10 +7033,10 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>92</v>
@@ -7120,13 +7051,13 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7134,10 +7065,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7145,7 +7076,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>92</v>
@@ -7157,20 +7088,18 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7195,13 +7124,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7219,7 +7148,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7231,19 +7160,19 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7251,10 +7180,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7262,10 +7191,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7277,13 +7206,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
+        <v>139</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7322,31 +7251,29 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7366,12 +7293,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7380,7 +7309,7 @@
         <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7392,13 +7321,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7437,17 +7366,19 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7456,7 +7387,7 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>143</v>
@@ -7482,17 +7413,15 @@
         <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
@@ -7507,13 +7436,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7564,19 +7493,19 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7596,10 +7525,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7610,7 +7539,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7622,16 +7551,20 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7679,31 +7612,31 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7711,10 +7644,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7725,7 +7658,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7737,20 +7670,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>168</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7786,41 +7715,43 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>374</v>
+        <v>171</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7828,21 +7759,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7854,15 +7785,17 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7911,25 +7844,25 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7943,14 +7876,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>154</v>
+        <v>375</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7963,24 +7896,26 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8028,7 +7963,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8046,7 +7981,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8067,38 +8002,36 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8123,13 +8056,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8147,28 +8080,28 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>135</v>
+        <v>385</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8179,10 +8112,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8190,7 +8123,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>92</v>
@@ -8205,17 +8138,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8240,13 +8173,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8264,10 +8197,10 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>92</v>
@@ -8282,10 +8215,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8296,10 +8229,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8322,17 +8255,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8381,7 +8314,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8399,24 +8332,24 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8439,18 +8372,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>168</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>169</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8498,7 +8429,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8510,41 +8441,41 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>171</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8556,15 +8487,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8601,37 +8534,37 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8645,21 +8578,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8668,19 +8601,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8718,37 +8651,37 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8762,10 +8695,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8773,7 +8706,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>92</v>
@@ -8788,16 +8721,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8823,13 +8756,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8847,7 +8780,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8856,7 +8789,7 @@
         <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>104</v>
@@ -8879,10 +8812,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8905,16 +8838,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8940,13 +8873,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8964,7 +8897,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8982,7 +8915,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8996,10 +8929,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9022,16 +8955,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9081,7 +9014,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9099,7 +9032,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -9113,10 +9046,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9139,18 +9072,20 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>171</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>295</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9198,7 +9133,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9216,13 +9151,13 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9230,14 +9165,12 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9258,20 +9191,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9319,31 +9248,31 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>374</v>
+        <v>171</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9351,21 +9280,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9377,15 +9306,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9422,37 +9353,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9466,21 +9397,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9489,19 +9420,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9551,25 +9482,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9583,46 +9514,44 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9646,13 +9575,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9670,19 +9599,19 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9702,10 +9631,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9713,7 +9642,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>92</v>
@@ -9725,27 +9654,27 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>80</v>
@@ -9763,13 +9692,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9787,10 +9716,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>92</v>
@@ -9805,10 +9734,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9819,10 +9748,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9842,21 +9771,21 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9904,7 +9833,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9922,10 +9851,10 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>396</v>
+        <v>135</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9936,10 +9865,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9947,10 +9876,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9962,18 +9891,18 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10021,13 +9950,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -10039,24 +9968,24 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10079,13 +10008,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10136,7 +10065,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10154,7 +10083,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10168,14 +10097,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10197,13 +10126,13 @@
         <v>137</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10241,19 +10170,19 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10271,7 +10200,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10285,44 +10214,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>277</v>
+        <v>377</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10370,19 +10301,19 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10402,10 +10333,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10413,7 +10344,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10425,19 +10356,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>282</v>
+        <v>433</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>283</v>
+        <v>434</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>284</v>
+        <v>435</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10463,13 +10394,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>286</v>
+        <v>437</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10487,10 +10418,10 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>287</v>
+        <v>432</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>92</v>
@@ -10505,13 +10436,13 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10519,10 +10450,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10530,7 +10461,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -10542,20 +10473,18 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10604,10 +10533,10 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>92</v>
@@ -10622,13 +10551,13 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>293</v>
+        <v>445</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10636,10 +10565,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10650,7 +10579,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10662,18 +10591,20 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>295</v>
+        <v>449</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>296</v>
+        <v>450</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10721,13 +10652,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10739,13 +10670,13 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>135</v>
+        <v>453</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10753,10 +10684,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10776,23 +10707,19 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>430</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>431</v>
+        <v>168</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10840,7 +10767,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>429</v>
+        <v>170</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10852,19 +10779,19 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>171</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10872,21 +10799,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10898,15 +10825,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10955,25 +10884,25 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10987,14 +10916,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>154</v>
+        <v>375</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11007,24 +10936,26 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11060,19 +10991,19 @@
         <v>80</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11090,7 +11021,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11104,10 +11035,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11115,10 +11046,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11130,16 +11061,16 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>277</v>
+        <v>461</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>278</v>
+        <v>462</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11165,13 +11096,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11189,16 +11120,16 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>279</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>104</v>
@@ -11207,13 +11138,13 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11221,10 +11152,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11247,17 +11178,15 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>282</v>
+        <v>467</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11282,13 +11211,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11306,7 +11235,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>287</v>
+        <v>466</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11324,13 +11253,13 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11338,10 +11267,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11352,7 +11281,7 @@
         <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11364,17 +11293,15 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>161</v>
+        <v>471</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>289</v>
+        <v>472</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11423,13 +11350,13 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>292</v>
+        <v>470</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -11441,10 +11368,10 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11455,10 +11382,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11469,7 +11396,7 @@
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11478,20 +11405,18 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>295</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11528,40 +11453,38 @@
         <v>80</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>298</v>
+        <v>475</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11572,10 +11495,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11586,7 +11509,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11598,17 +11521,15 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>445</v>
+        <v>168</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11657,31 +11578,31 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>444</v>
+        <v>170</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>448</v>
+        <v>171</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11689,21 +11610,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11715,15 +11636,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11772,25 +11695,25 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11804,14 +11727,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>154</v>
+        <v>375</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11824,24 +11747,26 @@
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11889,7 +11814,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -11907,7 +11832,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11921,45 +11846,45 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>381</v>
+        <v>487</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>382</v>
+        <v>488</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
+        <v>489</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>158</v>
+        <v>490</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12008,28 +11933,28 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12040,10 +11965,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12051,7 +11976,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>92</v>
@@ -12066,18 +11991,20 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12101,13 +12028,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12125,10 +12052,10 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>92</v>
@@ -12143,13 +12070,13 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>460</v>
+        <v>244</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>461</v>
+        <v>245</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12157,10 +12084,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12168,10 +12095,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12183,16 +12110,18 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>464</v>
+        <v>317</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12240,13 +12169,13 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
@@ -12258,24 +12187,24 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>467</v>
+        <v>322</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>468</v>
+        <v>323</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12286,7 +12215,7 @@
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12295,23 +12224,21 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12359,13 +12286,13 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
@@ -12377,13 +12304,13 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12391,10 +12318,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12417,15 +12344,17 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>172</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12474,7 +12403,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12483,19 +12412,19 @@
         <v>92</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>175</v>
+        <v>511</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12506,21 +12435,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12532,18 +12461,20 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>177</v>
+        <v>513</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>178</v>
+        <v>514</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12567,13 +12498,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12591,77 +12522,77 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>180</v>
+        <v>512</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>175</v>
+        <v>519</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>157</v>
+        <v>523</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>158</v>
+        <v>524</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12686,13 +12617,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -12710,28 +12641,28 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>383</v>
+        <v>520</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>135</v>
+        <v>527</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12742,10 +12673,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12765,19 +12696,19 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>192</v>
+        <v>471</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12803,13 +12734,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -12827,7 +12758,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -12836,7 +12767,7 @@
         <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>104</v>
@@ -12845,13 +12776,13 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>249</v>
+        <v>533</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>249</v>
+        <v>534</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -12859,10 +12790,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12882,19 +12813,23 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12918,13 +12853,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12942,7 +12877,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -12951,7 +12886,7 @@
         <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>104</v>
@@ -12960,13 +12895,13 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>317</v>
+        <v>542</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -12974,10 +12909,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12997,18 +12932,20 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13057,7 +12994,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13066,7 +13003,7 @@
         <v>82</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>104</v>
@@ -13075,10 +13012,10 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>175</v>
+        <v>547</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
@@ -13089,12 +13026,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13103,7 +13042,7 @@
         <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13115,13 +13054,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13160,17 +13099,19 @@
         <v>80</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13182,16 +13123,16 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -13202,10 +13143,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13228,13 +13169,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13285,7 +13226,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13303,7 +13244,7 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
@@ -13317,14 +13258,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13346,13 +13287,13 @@
         <v>137</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13402,7 +13343,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13420,7 +13361,7 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13434,14 +13375,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>506</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13463,16 +13404,16 @@
         <v>137</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13521,7 +13462,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -13553,18 +13494,18 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>554</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>92</v>
@@ -13579,19 +13520,19 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13640,7 +13581,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -13658,10 +13599,10 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13672,10 +13613,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13683,7 +13624,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
@@ -13698,19 +13639,19 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13720,7 +13661,7 @@
         <v>80</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>80</v>
@@ -13735,13 +13676,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -13759,7 +13700,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -13777,10 +13718,10 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>80</v>
@@ -13791,10 +13732,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13817,17 +13758,17 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -13876,7 +13817,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -13894,24 +13835,24 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13934,16 +13875,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13993,7 +13934,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14014,7 +13955,7 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
@@ -14025,10 +13966,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14036,7 +13977,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>92</v>
@@ -14054,13 +13995,13 @@
         <v>122</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14110,7 +14051,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14119,7 +14060,7 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>104</v>
@@ -14128,10 +14069,10 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>80</v>
@@ -14142,10 +14083,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14171,16 +14112,16 @@
         <v>112</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14205,13 +14146,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14229,7 +14170,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14247,24 +14188,24 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14287,19 +14228,19 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14327,10 +14268,10 @@
         <v>116</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -14348,7 +14289,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14366,10 +14307,10 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>
@@ -14380,10 +14321,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14391,10 +14332,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -14406,16 +14347,16 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14465,7 +14406,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -14474,7 +14415,7 @@
         <v>82</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>104</v>
@@ -14483,10 +14424,10 @@
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>80</v>
@@ -14497,10 +14438,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14523,19 +14464,19 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14563,10 +14504,10 @@
         <v>116</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -14584,7 +14525,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -14593,7 +14534,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>104</v>
@@ -14602,10 +14543,10 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
@@ -14616,10 +14557,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14630,7 +14571,7 @@
         <v>81</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>80</v>
@@ -14645,13 +14586,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14701,7 +14642,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -14710,7 +14651,7 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>104</v>
@@ -14719,1663 +14660,15 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO121" t="s" s="2">
         <v>80</v>
       </c>
     </row>
